--- a/data/FIR.xlsx
+++ b/data/FIR.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="350">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>FIR</t>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Q2 2025</t>
+  </si>
+  <si>
+    <t>Q3 2025</t>
   </si>
   <si>
     <t>TÀI SẢN NGẮN HẠN</t>
@@ -1796,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1F27F-35E6-5C48-8053-57EA86EBE2B3}">
-  <dimension ref="A1:AP141"/>
+  <dimension ref="A1:AQ141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1846,6 +1849,7 @@
     <col min="40" max="40" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="18.5390625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="18.5390625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="18.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2015,10 +2019,13 @@
       <c r="AP11" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AQ11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>2.30139307583E11</v>
@@ -2139,11 +2146,14 @@
       </c>
       <c r="AP12" s="13" t="n">
         <v>7.77241885837E11</v>
+      </c>
+      <c r="AQ12" s="13" t="n">
+        <v>7.60704590183E11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>4.8310689697E10</v>
@@ -2264,11 +2274,14 @@
       </c>
       <c r="AP13" s="13" t="n">
         <v>4.109203799E9</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>4.362713652E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>4.8310689697E10</v>
@@ -2389,11 +2402,14 @@
       </c>
       <c r="AP14" s="13" t="n">
         <v>4.109203799E9</v>
+      </c>
+      <c r="AQ14" s="13" t="n">
+        <v>4.362713652E9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>0.0</v>
@@ -2513,12 +2529,15 @@
         <v>0.0</v>
       </c>
       <c r="AP15" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ15" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>0.0</v>
@@ -2638,12 +2657,15 @@
         <v>0.0</v>
       </c>
       <c r="AP16" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ16" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>0.0</v>
@@ -2763,12 +2785,15 @@
         <v>0.0</v>
       </c>
       <c r="AP17" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ17" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0.0</v>
@@ -2888,12 +2913,15 @@
         <v>0.0</v>
       </c>
       <c r="AP18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ18" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="13" t="n">
         <v>0.0</v>
@@ -3013,12 +3041,15 @@
         <v>0.0</v>
       </c>
       <c r="AP19" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="13" t="n">
         <v>1.78288000193E11</v>
@@ -3139,11 +3170,14 @@
       </c>
       <c r="AP20" s="13" t="n">
         <v>4.67322242581E11</v>
+      </c>
+      <c r="AQ20" s="13" t="n">
+        <v>4.50579999741E11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="13" t="n">
         <v>3.5972297051E10</v>
@@ -3264,11 +3298,14 @@
       </c>
       <c r="AP21" s="13" t="n">
         <v>2.8424677425E10</v>
+      </c>
+      <c r="AQ21" s="13" t="n">
+        <v>1.6594413229E10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="13" t="n">
         <v>1.3971047955E11</v>
@@ -3389,11 +3426,14 @@
       </c>
       <c r="AP22" s="13" t="n">
         <v>1.04642761885E11</v>
+      </c>
+      <c r="AQ22" s="13" t="n">
+        <v>8.7886026182E10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="13" t="n">
         <v>0.0</v>
@@ -3513,12 +3553,15 @@
         <v>0.0</v>
       </c>
       <c r="AP23" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ23" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B24" s="13" t="n">
         <v>0.0</v>
@@ -3638,12 +3681,15 @@
         <v>0.0</v>
       </c>
       <c r="AP24" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ24" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="13" t="n">
         <v>0.0</v>
@@ -3763,12 +3809,15 @@
         <v>0.0</v>
       </c>
       <c r="AP25" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ25" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="13" t="n">
         <v>2.621423591E9</v>
@@ -3889,11 +3938,14 @@
       </c>
       <c r="AP26" s="13" t="n">
         <v>3.53871037318E11</v>
+      </c>
+      <c r="AQ26" s="13" t="n">
+        <v>3.60715794377E11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B27" s="13" t="n">
         <v>-1.6199999E7</v>
@@ -4014,11 +4066,14 @@
       </c>
       <c r="AP27" s="13" t="n">
         <v>-1.9616234047E10</v>
+      </c>
+      <c r="AQ27" s="13" t="n">
+        <v>-1.4616234047E10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="13" t="n">
         <v>0.0</v>
@@ -4138,12 +4193,15 @@
         <v>0.0</v>
       </c>
       <c r="AP28" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ28" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>1.890227567E9</v>
@@ -4264,11 +4322,14 @@
       </c>
       <c r="AP29" s="13" t="n">
         <v>3.03174746945E11</v>
+      </c>
+      <c r="AQ29" s="13" t="n">
+        <v>3.02973283649E11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="13" t="n">
         <v>1.890227567E9</v>
@@ -4389,11 +4450,14 @@
       </c>
       <c r="AP30" s="13" t="n">
         <v>3.03174746945E11</v>
+      </c>
+      <c r="AQ30" s="13" t="n">
+        <v>3.02973283649E11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>0.0</v>
@@ -4513,12 +4577,15 @@
         <v>0.0</v>
       </c>
       <c r="AP31" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ31" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>1.650390126E9</v>
@@ -4639,11 +4706,14 @@
       </c>
       <c r="AP32" s="13" t="n">
         <v>2.635692512E9</v>
+      </c>
+      <c r="AQ32" s="13" t="n">
+        <v>2.788593141E9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>1.648890126E9</v>
@@ -4764,11 +4834,14 @@
       </c>
       <c r="AP33" s="13" t="n">
         <v>3.9547039E7</v>
+      </c>
+      <c r="AQ33" s="13" t="n">
+        <v>1.92374128E8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>0.0</v>
@@ -4889,11 +4962,14 @@
       </c>
       <c r="AP34" s="13" t="n">
         <v>2.596145473E9</v>
+      </c>
+      <c r="AQ34" s="13" t="n">
+        <v>2.596219013E9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>1500000.0</v>
@@ -5013,12 +5089,15 @@
         <v>0.0</v>
       </c>
       <c r="AP35" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ35" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>0.0</v>
@@ -5138,12 +5217,15 @@
         <v>0.0</v>
       </c>
       <c r="AP36" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ36" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>0.0</v>
@@ -5263,12 +5345,15 @@
         <v>0.0</v>
       </c>
       <c r="AP37" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ37" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>3.2073236024E10</v>
@@ -5389,11 +5474,14 @@
       </c>
       <c r="AP38" s="13" t="n">
         <v>4.73798507581E11</v>
+      </c>
+      <c r="AQ38" s="13" t="n">
+        <v>4.73414490864E11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" s="13" t="n">
         <v>0.0</v>
@@ -5513,12 +5601,15 @@
         <v>1.52435E11</v>
       </c>
       <c r="AP39" s="13" t="n">
+        <v>1.52435E11</v>
+      </c>
+      <c r="AQ39" s="13" t="n">
         <v>1.52435E11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="13" t="n">
         <v>0.0</v>
@@ -5638,12 +5729,15 @@
         <v>0.0</v>
       </c>
       <c r="AP40" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ40" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>0.0</v>
@@ -5763,12 +5857,15 @@
         <v>0.0</v>
       </c>
       <c r="AP41" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ41" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="13" t="n">
         <v>0.0</v>
@@ -5888,12 +5985,15 @@
         <v>0.0</v>
       </c>
       <c r="AP42" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ42" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="13" t="n">
         <v>0.0</v>
@@ -6013,12 +6113,15 @@
         <v>0.0</v>
       </c>
       <c r="AP43" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ43" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="13" t="n">
         <v>0.0</v>
@@ -6138,12 +6241,15 @@
         <v>0.0</v>
       </c>
       <c r="AP44" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ44" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" s="13" t="n">
         <v>0.0</v>
@@ -6263,12 +6369,15 @@
         <v>1.52435E11</v>
       </c>
       <c r="AP45" s="13" t="n">
+        <v>1.52435E11</v>
+      </c>
+      <c r="AQ45" s="13" t="n">
         <v>1.52435E11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="13" t="n">
         <v>0.0</v>
@@ -6388,12 +6497,15 @@
         <v>0.0</v>
       </c>
       <c r="AP46" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ46" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B47" s="13" t="n">
         <v>3.0883199674E10</v>
@@ -6514,11 +6626,14 @@
       </c>
       <c r="AP47" s="13" t="n">
         <v>6.45518751E8</v>
+      </c>
+      <c r="AQ47" s="13" t="n">
+        <v>5.61421561E8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="13" t="n">
         <v>5.568199674E9</v>
@@ -6639,11 +6754,14 @@
       </c>
       <c r="AP48" s="13" t="n">
         <v>6.45518751E8</v>
+      </c>
+      <c r="AQ48" s="13" t="n">
+        <v>5.61421561E8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="13" t="n">
         <v>6.613272728E9</v>
@@ -6763,12 +6881,15 @@
         <v>4.612522727E9</v>
       </c>
       <c r="AP49" s="13" t="n">
+        <v>1.473440909E9</v>
+      </c>
+      <c r="AQ49" s="13" t="n">
         <v>1.473440909E9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="13" t="n">
         <v>-1.045073054E9</v>
@@ -6889,11 +7010,14 @@
       </c>
       <c r="AP50" s="13" t="n">
         <v>-8.27922158E8</v>
+      </c>
+      <c r="AQ50" s="13" t="n">
+        <v>-9.12019348E8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="13" t="n">
         <v>0.0</v>
@@ -7013,12 +7137,15 @@
         <v>0.0</v>
       </c>
       <c r="AP51" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ51" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B52" s="13" t="n">
         <v>0.0</v>
@@ -7138,12 +7265,15 @@
         <v>0.0</v>
       </c>
       <c r="AP52" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ52" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="13" t="n">
         <v>0.0</v>
@@ -7263,12 +7393,15 @@
         <v>0.0</v>
       </c>
       <c r="AP53" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ53" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B54" s="13" t="n">
         <v>2.5315E10</v>
@@ -7388,12 +7521,15 @@
         <v>0.0</v>
       </c>
       <c r="AP54" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ54" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="13" t="n">
         <v>2.5315E10</v>
@@ -7513,12 +7649,15 @@
         <v>0.0</v>
       </c>
       <c r="AP55" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ55" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="13" t="n">
         <v>0.0</v>
@@ -7638,12 +7777,15 @@
         <v>0.0</v>
       </c>
       <c r="AP56" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ56" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B57" s="13" t="n">
         <v>0.0</v>
@@ -7763,12 +7905,15 @@
         <v>0.0</v>
       </c>
       <c r="AP57" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ57" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B58" s="13" t="n">
         <v>0.0</v>
@@ -7889,11 +8034,14 @@
       </c>
       <c r="AP58" s="13" t="n">
         <v>5.6793193295E10</v>
+      </c>
+      <c r="AQ58" s="13" t="n">
+        <v>5.6671982251E10</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="13" t="n">
         <v>0.0</v>
@@ -8013,12 +8161,15 @@
         <v>5.9839461277E10</v>
       </c>
       <c r="AP59" s="13" t="n">
+        <v>5.9839461277E10</v>
+      </c>
+      <c r="AQ59" s="13" t="n">
         <v>5.9839461277E10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="13" t="n">
         <v>0.0</v>
@@ -8139,11 +8290,14 @@
       </c>
       <c r="AP60" s="13" t="n">
         <v>-3.046267982E9</v>
+      </c>
+      <c r="AQ60" s="13" t="n">
+        <v>-3.167479026E9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="13" t="n">
         <v>0.0</v>
@@ -8263,12 +8417,15 @@
         <v>5.1609733987E10</v>
       </c>
       <c r="AP61" s="13" t="n">
+        <v>5.1903101672E10</v>
+      </c>
+      <c r="AQ61" s="13" t="n">
         <v>5.1903101672E10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="13" t="n">
         <v>0.0</v>
@@ -8388,12 +8545,15 @@
         <v>0.0</v>
       </c>
       <c r="AP62" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ62" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="13" t="n">
         <v>0.0</v>
@@ -8513,12 +8673,15 @@
         <v>5.1609733987E10</v>
       </c>
       <c r="AP63" s="13" t="n">
+        <v>5.1903101672E10</v>
+      </c>
+      <c r="AQ63" s="13" t="n">
         <v>5.1903101672E10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B64" s="13" t="n">
         <v>0.0</v>
@@ -8638,12 +8801,15 @@
         <v>2.00523066421E11</v>
       </c>
       <c r="AP64" s="13" t="n">
+        <v>2.00523066421E11</v>
+      </c>
+      <c r="AQ64" s="13" t="n">
         <v>2.00523066421E11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B65" s="13" t="n">
         <v>0.0</v>
@@ -8763,12 +8929,15 @@
         <v>0.0</v>
       </c>
       <c r="AP65" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ65" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B66" s="13" t="n">
         <v>0.0</v>
@@ -8888,12 +9057,15 @@
         <v>2.00523066421E11</v>
       </c>
       <c r="AP66" s="13" t="n">
+        <v>2.00523066421E11</v>
+      </c>
+      <c r="AQ66" s="13" t="n">
         <v>2.00523066421E11</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B67" s="13" t="n">
         <v>0.0</v>
@@ -9013,12 +9185,15 @@
         <v>0.0</v>
       </c>
       <c r="AP67" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ67" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B68" s="13" t="n">
         <v>0.0</v>
@@ -9138,12 +9313,15 @@
         <v>0.0</v>
       </c>
       <c r="AP68" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ68" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B69" s="13" t="n">
         <v>0.0</v>
@@ -9263,12 +9441,15 @@
         <v>0.0</v>
       </c>
       <c r="AP69" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ69" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="13" t="n">
         <v>0.0</v>
@@ -9388,12 +9569,15 @@
         <v>0.0</v>
       </c>
       <c r="AP70" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ70" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B71" s="13" t="n">
         <v>1.19003635E9</v>
@@ -9514,11 +9698,14 @@
       </c>
       <c r="AP71" s="13" t="n">
         <v>1.1498627442E10</v>
+      </c>
+      <c r="AQ71" s="13" t="n">
+        <v>1.1319918959E10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="13" t="n">
         <v>1.19003635E9</v>
@@ -9639,11 +9826,14 @@
       </c>
       <c r="AP72" s="13" t="n">
         <v>1.1498627442E10</v>
+      </c>
+      <c r="AQ72" s="13" t="n">
+        <v>1.1319918959E10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" s="13" t="n">
         <v>0.0</v>
@@ -9763,12 +9953,15 @@
         <v>0.0</v>
       </c>
       <c r="AP73" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ73" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B74" s="13" t="n">
         <v>0.0</v>
@@ -9888,12 +10081,15 @@
         <v>0.0</v>
       </c>
       <c r="AP74" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ74" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B75" s="13" t="n">
         <v>0.0</v>
@@ -10013,12 +10209,15 @@
         <v>0.0</v>
       </c>
       <c r="AP75" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ75" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B76" s="13" t="n">
         <v>0.0</v>
@@ -10138,12 +10337,15 @@
         <v>0.0</v>
       </c>
       <c r="AP76" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ76" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="13" t="n">
         <v>2.62212543607E11</v>
@@ -10264,11 +10466,14 @@
       </c>
       <c r="AP77" s="13" t="n">
         <v>1.251040393418E12</v>
+      </c>
+      <c r="AQ77" s="13" t="n">
+        <v>1.234119081047E12</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B78" s="13" t="n">
         <v>1.02963656903E11</v>
@@ -10389,11 +10594,14 @@
       </c>
       <c r="AP78" s="13" t="n">
         <v>4.91179881105E11</v>
+      </c>
+      <c r="AQ78" s="13" t="n">
+        <v>4.79715398976E11</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B79" s="13" t="n">
         <v>1.0120544024E11</v>
@@ -10514,11 +10722,14 @@
       </c>
       <c r="AP79" s="13" t="n">
         <v>4.63731673859E11</v>
+      </c>
+      <c r="AQ79" s="13" t="n">
+        <v>4.58965579007E11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" s="13" t="n">
         <v>7.050090713E9</v>
@@ -10639,11 +10850,14 @@
       </c>
       <c r="AP80" s="13" t="n">
         <v>8.17677738E9</v>
+      </c>
+      <c r="AQ80" s="13" t="n">
+        <v>9.545864816E9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="13" t="n">
         <v>6.4300629E10</v>
@@ -10764,11 +10978,14 @@
       </c>
       <c r="AP81" s="13" t="n">
         <v>1.12581111525E11</v>
+      </c>
+      <c r="AQ81" s="13" t="n">
+        <v>1.07462468651E11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" s="13" t="n">
         <v>1.0996525118E10</v>
@@ -10889,11 +11106,14 @@
       </c>
       <c r="AP82" s="13" t="n">
         <v>5.6359259576E10</v>
+      </c>
+      <c r="AQ82" s="13" t="n">
+        <v>5.8509145352E10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="13" t="n">
         <v>0.0</v>
@@ -11014,11 +11234,14 @@
       </c>
       <c r="AP83" s="13" t="n">
         <v>4.03784208E8</v>
+      </c>
+      <c r="AQ83" s="13" t="n">
+        <v>5.51706754E8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" s="13" t="n">
         <v>1.60437858E8</v>
@@ -11139,11 +11362,14 @@
       </c>
       <c r="AP84" s="13" t="n">
         <v>2.6931370736E10</v>
+      </c>
+      <c r="AQ84" s="13" t="n">
+        <v>3.1035656964E10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" s="13" t="n">
         <v>0.0</v>
@@ -11263,12 +11489,15 @@
         <v>0.0</v>
       </c>
       <c r="AP85" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ85" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="13" t="n">
         <v>0.0</v>
@@ -11388,12 +11617,15 @@
         <v>0.0</v>
       </c>
       <c r="AP86" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ86" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B87" s="13" t="n">
         <v>0.0</v>
@@ -11513,12 +11745,15 @@
         <v>4.4442E8</v>
       </c>
       <c r="AP87" s="13" t="n">
+        <v>8.8884E8</v>
+      </c>
+      <c r="AQ87" s="13" t="n">
         <v>8.8884E8</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B88" s="13" t="n">
         <v>8.239837389E9</v>
@@ -11639,11 +11874,14 @@
       </c>
       <c r="AP88" s="13" t="n">
         <v>1.03679959545E11</v>
+      </c>
+      <c r="AQ88" s="13" t="n">
+        <v>1.13285148304E11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B89" s="13" t="n">
         <v>1.0457920162E10</v>
@@ -11764,11 +12002,14 @@
       </c>
       <c r="AP89" s="13" t="n">
         <v>1.54710570889E11</v>
+      </c>
+      <c r="AQ89" s="13" t="n">
+        <v>1.37686748166E11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" s="13" t="n">
         <v>0.0</v>
@@ -11888,12 +12129,15 @@
         <v>0.0</v>
       </c>
       <c r="AP90" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ90" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B91" s="13" t="n">
         <v>0.0</v>
@@ -12013,12 +12257,15 @@
         <v>0.0</v>
       </c>
       <c r="AP91" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ91" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B92" s="13" t="n">
         <v>0.0</v>
@@ -12138,12 +12385,15 @@
         <v>0.0</v>
       </c>
       <c r="AP92" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ92" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B93" s="13" t="n">
         <v>0.0</v>
@@ -12263,12 +12513,15 @@
         <v>0.0</v>
       </c>
       <c r="AP93" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ93" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B94" s="13" t="n">
         <v>1.758216663E9</v>
@@ -12389,11 +12642,14 @@
       </c>
       <c r="AP94" s="13" t="n">
         <v>2.7448207246E10</v>
+      </c>
+      <c r="AQ94" s="13" t="n">
+        <v>2.0749819969E10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B95" s="13" t="n">
         <v>0.0</v>
@@ -12513,12 +12769,15 @@
         <v>0.0</v>
       </c>
       <c r="AP95" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ95" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B96" s="13" t="n">
         <v>0.0</v>
@@ -12638,12 +12897,15 @@
         <v>0.0</v>
       </c>
       <c r="AP96" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ96" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B97" s="13" t="n">
         <v>0.0</v>
@@ -12763,12 +13025,15 @@
         <v>0.0</v>
       </c>
       <c r="AP97" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ97" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B98" s="13" t="n">
         <v>0.0</v>
@@ -12888,12 +13153,15 @@
         <v>0.0</v>
       </c>
       <c r="AP98" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ98" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="13" t="n">
         <v>0.0</v>
@@ -13013,12 +13281,15 @@
         <v>0.0</v>
       </c>
       <c r="AP99" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ99" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="13" t="n">
         <v>0.0</v>
@@ -13139,11 +13410,14 @@
       </c>
       <c r="AP100" s="13" t="n">
         <v>6.695928E9</v>
+      </c>
+      <c r="AQ100" s="13" t="n">
+        <v>6.473718E9</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B101" s="13" t="n">
         <v>0.0</v>
@@ -13264,11 +13538,14 @@
       </c>
       <c r="AP101" s="13" t="n">
         <v>4.5E9</v>
+      </c>
+      <c r="AQ101" s="13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="13" t="n">
         <v>1.758216663E9</v>
@@ -13389,11 +13666,14 @@
       </c>
       <c r="AP102" s="13" t="n">
         <v>1.5809418213E10</v>
+      </c>
+      <c r="AQ102" s="13" t="n">
+        <v>1.3833240936E10</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B103" s="13" t="n">
         <v>0.0</v>
@@ -13513,12 +13793,15 @@
         <v>0.0</v>
       </c>
       <c r="AP103" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ103" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -13560,10 +13843,11 @@
       <c r="AN104" s="13"/>
       <c r="AO104" s="13"/>
       <c r="AP104" s="13"/>
+      <c r="AQ104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B105" s="13" t="n">
         <v>0.0</v>
@@ -13683,12 +13967,15 @@
         <v>4.42861033E8</v>
       </c>
       <c r="AP105" s="13" t="n">
+        <v>4.42861033E8</v>
+      </c>
+      <c r="AQ105" s="13" t="n">
         <v>4.42861033E8</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" s="13" t="n">
         <v>0.0</v>
@@ -13808,12 +14095,15 @@
         <v>0.0</v>
       </c>
       <c r="AP106" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ106" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" s="13" t="n">
         <v>0.0</v>
@@ -13933,12 +14223,15 @@
         <v>0.0</v>
       </c>
       <c r="AP107" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ107" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" s="13" t="n">
         <v>0.0</v>
@@ -14058,12 +14351,15 @@
         <v>0.0</v>
       </c>
       <c r="AP108" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ108" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" s="13" t="n">
         <v>1.59248886704E11</v>
@@ -14184,11 +14480,14 @@
       </c>
       <c r="AP109" s="13" t="n">
         <v>7.59860512313E11</v>
+      </c>
+      <c r="AQ109" s="13" t="n">
+        <v>7.54403682071E11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" s="13" t="n">
         <v>1.59248886704E11</v>
@@ -14309,11 +14608,14 @@
       </c>
       <c r="AP110" s="13" t="n">
         <v>7.59860512313E11</v>
+      </c>
+      <c r="AQ110" s="13" t="n">
+        <v>7.54403682071E11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" s="13" t="n">
         <v>1.3E11</v>
@@ -14434,11 +14736,14 @@
       </c>
       <c r="AP111" s="13" t="n">
         <v>6.4245281E11</v>
+      </c>
+      <c r="AQ111" s="13" t="n">
+        <v>7.066962E11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" s="13" t="n">
         <v>1.3E11</v>
@@ -14559,11 +14864,14 @@
       </c>
       <c r="AP112" s="13" t="n">
         <v>6.4245281E11</v>
+      </c>
+      <c r="AQ112" s="13" t="n">
+        <v>7.066962E11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B113" s="13" t="n">
         <v>0.0</v>
@@ -14683,12 +14991,15 @@
         <v>0.0</v>
       </c>
       <c r="AP113" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ113" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B114" s="13" t="n">
         <v>0.0</v>
@@ -14809,11 +15120,14 @@
       </c>
       <c r="AP114" s="13" t="n">
         <v>6.732824E10</v>
+      </c>
+      <c r="AQ114" s="13" t="n">
+        <v>3.08485E9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" s="13" t="n">
         <v>0.0</v>
@@ -14933,12 +15247,15 @@
         <v>0.0</v>
       </c>
       <c r="AP115" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ115" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" s="13" t="n">
         <v>0.0</v>
@@ -15058,12 +15375,15 @@
         <v>0.0</v>
       </c>
       <c r="AP116" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ116" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B117" s="13" t="n">
         <v>0.0</v>
@@ -15183,12 +15503,15 @@
         <v>0.0</v>
       </c>
       <c r="AP117" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ117" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B118" s="13" t="n">
         <v>0.0</v>
@@ -15308,12 +15631,15 @@
         <v>0.0</v>
       </c>
       <c r="AP118" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ118" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B119" s="13" t="n">
         <v>0.0</v>
@@ -15433,12 +15759,15 @@
         <v>0.0</v>
       </c>
       <c r="AP119" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ119" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B120" s="13" t="n">
         <v>0.0</v>
@@ -15558,12 +15887,15 @@
         <v>0.0</v>
       </c>
       <c r="AP120" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ120" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B121" s="13" t="n">
         <v>0.0</v>
@@ -15683,12 +16015,15 @@
         <v>0.0</v>
       </c>
       <c r="AP121" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ121" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B122" s="13" t="n">
         <v>0.0</v>
@@ -15808,12 +16143,15 @@
         <v>0.0</v>
       </c>
       <c r="AP122" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ122" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>0.0</v>
@@ -15933,12 +16271,15 @@
         <v>0.0</v>
       </c>
       <c r="AP123" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ123" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>2.8402142557E10</v>
@@ -16059,11 +16400,14 @@
       </c>
       <c r="AP124" s="13" t="n">
         <v>4.9981548832E10</v>
+      </c>
+      <c r="AQ124" s="13" t="n">
+        <v>4.4524712613E10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>1.778390616E10</v>
@@ -16183,12 +16527,15 @@
         <v>3.2153011199E10</v>
       </c>
       <c r="AP125" s="13" t="n">
+        <v>3.21530112E10</v>
+      </c>
+      <c r="AQ125" s="13" t="n">
         <v>3.21530112E10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>1.0618236397E10</v>
@@ -16309,11 +16656,14 @@
       </c>
       <c r="AP126" s="13" t="n">
         <v>1.7828537632E10</v>
+      </c>
+      <c r="AQ126" s="13" t="n">
+        <v>1.2371701413E10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B127" s="13" t="n">
         <v>8.46744147E8</v>
@@ -16434,11 +16784,14 @@
       </c>
       <c r="AP127" s="13" t="n">
         <v>9.7913481E7</v>
+      </c>
+      <c r="AQ127" s="13" t="n">
+        <v>9.7919458E7</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B128" s="13" t="n">
         <v>0.0</v>
@@ -16558,12 +16911,15 @@
         <v>0.0</v>
       </c>
       <c r="AP128" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ128" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B129" s="13" t="n">
         <v>0.0</v>
@@ -16683,12 +17039,15 @@
         <v>0.0</v>
       </c>
       <c r="AP129" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ129" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B130" s="13" t="n">
         <v>0.0</v>
@@ -16808,12 +17167,15 @@
         <v>0.0</v>
       </c>
       <c r="AP130" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ130" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B131" s="13" t="n">
         <v>0.0</v>
@@ -16933,12 +17295,15 @@
         <v>0.0</v>
       </c>
       <c r="AP131" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ131" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B132" s="13" t="n">
         <v>0.0</v>
@@ -17058,12 +17423,15 @@
         <v>0.0</v>
       </c>
       <c r="AP132" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ132" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B133" s="13" t="n">
         <v>2.62212543607E11</v>
@@ -17184,6 +17552,9 @@
       </c>
       <c r="AP133" s="13" t="n">
         <v>1.251040393418E12</v>
+      </c>
+      <c r="AQ133" s="13" t="n">
+        <v>1.234119081047E12</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -17224,7 +17595,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AP10"/>
+    <mergeCell ref="K10:AQ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A139" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{BC241E6B-908A-9A48-BD72-61B8A652B0D4}"/>
@@ -17238,7 +17609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC84FBE-342B-144C-9AE6-BA977881A664}">
-  <dimension ref="A1:AO44"/>
+  <dimension ref="A1:AP44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -17287,6 +17658,7 @@
     <col min="39" max="39" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="16.28515625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="16.28515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17453,10 +17825,13 @@
       <c r="AO11" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AP11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>9.4514096207E10</v>
@@ -17574,11 +17949,14 @@
       </c>
       <c r="AO12" s="17" t="n">
         <v>4.3097797288E10</v>
+      </c>
+      <c r="AP12" s="17" t="n">
+        <v>2.7292929333E10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>0.0</v>
@@ -17695,12 +18073,15 @@
         <v>0.0</v>
       </c>
       <c r="AO13" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP13" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>9.4514096207E10</v>
@@ -17818,11 +18199,14 @@
       </c>
       <c r="AO14" s="17" t="n">
         <v>4.3097797288E10</v>
+      </c>
+      <c r="AP14" s="17" t="n">
+        <v>2.7292929333E10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>-4.462811071E10</v>
@@ -17940,11 +18324,14 @@
       </c>
       <c r="AO15" s="17" t="n">
         <v>-1.4761031135E10</v>
+      </c>
+      <c r="AP15" s="17" t="n">
+        <v>-1.4708424848E10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>4.9885985497E10</v>
@@ -18062,11 +18449,14 @@
       </c>
       <c r="AO16" s="17" t="n">
         <v>2.8336766153E10</v>
+      </c>
+      <c r="AP16" s="17" t="n">
+        <v>1.2584504485E10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>6.4365085E7</v>
@@ -18184,11 +18574,14 @@
       </c>
       <c r="AO17" s="17" t="n">
         <v>355115.0</v>
+      </c>
+      <c r="AP17" s="17" t="n">
+        <v>1.09022245E8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>-3.73565386E8</v>
@@ -18306,11 +18699,14 @@
       </c>
       <c r="AO18" s="17" t="n">
         <v>-6.112155381E9</v>
+      </c>
+      <c r="AP18" s="17" t="n">
+        <v>-4.920410506E9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>-3.73565386E8</v>
@@ -18428,11 +18824,14 @@
       </c>
       <c r="AO19" s="17" t="n">
         <v>-6.112155381E9</v>
+      </c>
+      <c r="AP19" s="17" t="n">
+        <v>-4.920410506E9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="17" t="n">
         <v>0.0</v>
@@ -18549,12 +18948,15 @@
         <v>4.83453154E8</v>
       </c>
       <c r="AO20" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP20" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="17" t="n">
         <v>-1.1226405851E10</v>
@@ -18672,11 +19074,14 @@
       </c>
       <c r="AO21" s="17" t="n">
         <v>-2.8769922E7</v>
+      </c>
+      <c r="AP21" s="17" t="n">
+        <v>-5.51354818E8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>-5.196763136E9</v>
@@ -18794,11 +19199,14 @@
       </c>
       <c r="AO22" s="17" t="n">
         <v>-3.528006892E9</v>
+      </c>
+      <c r="AP22" s="17" t="n">
+        <v>1.474895438E9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B23" s="17" t="n">
         <v>3.3153616209E10</v>
@@ -18916,11 +19324,14 @@
       </c>
       <c r="AO23" s="17" t="n">
         <v>1.8668189073E10</v>
+      </c>
+      <c r="AP23" s="17" t="n">
+        <v>8.696656844E9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B24" s="17" t="n">
         <v>0.0</v>
@@ -19038,11 +19449,14 @@
       </c>
       <c r="AO24" s="17" t="n">
         <v>5.0741486E7</v>
+      </c>
+      <c r="AP24" s="17" t="n">
+        <v>-2.820354309E9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" s="17" t="n">
         <v>0.0</v>
@@ -19160,11 +19574,14 @@
       </c>
       <c r="AO25" s="17" t="n">
         <v>6.81818181E8</v>
+      </c>
+      <c r="AP25" s="17" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>0.0</v>
@@ -19282,11 +19699,14 @@
       </c>
       <c r="AO26" s="17" t="n">
         <v>-6.31076695E8</v>
+      </c>
+      <c r="AP26" s="17" t="n">
+        <v>-2.820354309E9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>0.0</v>
@@ -19403,12 +19823,15 @@
         <v>0.0</v>
       </c>
       <c r="AO27" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP27" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>3.3153616209E10</v>
@@ -19526,11 +19949,14 @@
       </c>
       <c r="AO28" s="17" t="n">
         <v>1.8718930559E10</v>
+      </c>
+      <c r="AP28" s="17" t="n">
+        <v>5.876302535E9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>-6.639760992E9</v>
@@ -19648,11 +20074,14 @@
       </c>
       <c r="AO29" s="17" t="n">
         <v>-3.754415685E9</v>
+      </c>
+      <c r="AP29" s="17" t="n">
+        <v>-2.578619261E9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>-6.639760992E9</v>
@@ -19770,11 +20199,14 @@
       </c>
       <c r="AO30" s="17" t="n">
         <v>-3.754415685E9</v>
+      </c>
+      <c r="AP30" s="17" t="n">
+        <v>-2.578619261E9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>0.0</v>
@@ -19891,12 +20323,15 @@
         <v>-2.01338181E8</v>
       </c>
       <c r="AO31" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP31" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>2.6513855217E10</v>
@@ -20014,11 +20449,14 @@
       </c>
       <c r="AO32" s="17" t="n">
         <v>1.4964514874E10</v>
+      </c>
+      <c r="AP32" s="17" t="n">
+        <v>3.297683274E9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>6.46744147E8</v>
@@ -20136,11 +20574,14 @@
       </c>
       <c r="AO33" s="17" t="n">
         <v>-9050.0</v>
+      </c>
+      <c r="AP33" s="17" t="n">
+        <v>5977.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>2.586711107E10</v>
@@ -20258,11 +20699,14 @@
       </c>
       <c r="AO34" s="17" t="n">
         <v>1.4964523924E10</v>
+      </c>
+      <c r="AP34" s="17" t="n">
+        <v>3.297677297E9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>3133.0</v>
@@ -20380,11 +20824,14 @@
       </c>
       <c r="AO35" s="17" t="n">
         <v>233.0</v>
+      </c>
+      <c r="AP35" s="17" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="17" t="n">
         <v>0.0</v>
@@ -20502,6 +20949,9 @@
       </c>
       <c r="AO36" s="17" t="n">
         <v>233.0</v>
+      </c>
+      <c r="AP36" s="17" t="n">
+        <v>47.0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -20542,7 +20992,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AO10"/>
+    <mergeCell ref="K10:AP10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A42" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2E2B9333-D71C-0347-A9BA-41353A177D7A}"/>
@@ -20556,7 +21006,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:AJ60"/>
+  <dimension ref="A1:AK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -20600,6 +21050,7 @@
     <col min="34" max="34" width="17.453125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="36" max="36" width="16.28515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="16.28515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20751,10 +21202,13 @@
       <c r="AJ11" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AK11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B12" s="21" t="n">
         <v>3.3153616212E10</v>
@@ -20857,11 +21311,14 @@
       </c>
       <c r="AJ12" s="21" t="n">
         <v>1.8718930559E10</v>
+      </c>
+      <c r="AK12" s="21" t="n">
+        <v>-5.06683936E9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B13" s="21" t="n">
         <v>7.25259218E8</v>
@@ -20964,11 +21421,14 @@
       </c>
       <c r="AJ13" s="21" t="n">
         <v>1.55541199E8</v>
+      </c>
+      <c r="AK13" s="21" t="n">
+        <v>2.05308234E8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>0.0</v>
@@ -21070,12 +21530,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK14" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>1.6199999E7</v>
@@ -21178,11 +21641,14 @@
       </c>
       <c r="AJ15" s="21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK15" s="21" t="n">
+        <v>-5.0E9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>0.0</v>
@@ -21284,12 +21750,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ16" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK16" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>0.0</v>
@@ -21391,12 +21860,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" s="21" t="n">
         <v>-6.4365085E7</v>
@@ -21499,11 +21971,14 @@
       </c>
       <c r="AJ18" s="21" t="n">
         <v>-355115.0</v>
+      </c>
+      <c r="AK18" s="21" t="n">
+        <v>4.83330909E8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>3.73565386E8</v>
@@ -21606,11 +22081,14 @@
       </c>
       <c r="AJ19" s="21" t="n">
         <v>6.112155381E9</v>
+      </c>
+      <c r="AK19" s="21" t="n">
+        <v>4.920410506E9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>0.0</v>
@@ -21712,12 +22190,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B21" s="21" t="n">
         <v>0.0</v>
@@ -21819,12 +22300,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="21" t="n">
         <v>-4.1141708382E10</v>
@@ -21927,11 +22411,14 @@
       </c>
       <c r="AJ22" s="21" t="n">
         <v>1.4660412202E10</v>
+      </c>
+      <c r="AK22" s="21" t="n">
+        <v>1.9253387608E10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" s="21" t="n">
         <v>3.420427573E10</v>
@@ -22034,11 +22521,14 @@
       </c>
       <c r="AJ23" s="21" t="n">
         <v>2.4986272024E10</v>
+      </c>
+      <c r="AK23" s="21" t="n">
+        <v>-4.457789711E9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>-1.53208068698E11</v>
@@ -22141,11 +22631,14 @@
       </c>
       <c r="AJ24" s="21" t="n">
         <v>-9.300212139E9</v>
+      </c>
+      <c r="AK24" s="21" t="n">
+        <v>2.1258716146E10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>-1.890227567E9</v>
@@ -22248,11 +22741,14 @@
       </c>
       <c r="AJ25" s="21" t="n">
         <v>-2.5223737652E10</v>
+      </c>
+      <c r="AK25" s="21" t="n">
+        <v>2.01463296E8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>8.2687849515E10</v>
@@ -22355,11 +22851,14 @@
       </c>
       <c r="AJ26" s="21" t="n">
         <v>2.5949305261E10</v>
+      </c>
+      <c r="AK26" s="21" t="n">
+        <v>3.166459782E9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>-2.590591653E9</v>
@@ -22462,11 +22961,14 @@
       </c>
       <c r="AJ27" s="21" t="n">
         <v>2.6990205E8</v>
+      </c>
+      <c r="AK27" s="21" t="n">
+        <v>2.5881394E7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>0.0</v>
@@ -22568,12 +23070,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK28" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>-3.44945709E8</v>
@@ -22676,11 +23181,14 @@
       </c>
       <c r="AJ29" s="21" t="n">
         <v>-1.168262973E9</v>
+      </c>
+      <c r="AK29" s="21" t="n">
+        <v>-5.13358353E8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>0.0</v>
@@ -22783,11 +23291,14 @@
       </c>
       <c r="AJ30" s="21" t="n">
         <v>-8.52854369E8</v>
+      </c>
+      <c r="AK30" s="21" t="n">
+        <v>-4.27984946E8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>0.0</v>
@@ -22889,12 +23400,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK31" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>0.0</v>
@@ -22996,12 +23510,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ32" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK32" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>-3.1945853097E10</v>
@@ -23104,11 +23621,14 @@
       </c>
       <c r="AJ33" s="21" t="n">
         <v>3.58892351E8</v>
+      </c>
+      <c r="AK33" s="21" t="n">
+        <v>122246.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>-3.2010218182E10</v>
@@ -23211,11 +23731,14 @@
       </c>
       <c r="AJ34" s="21" t="n">
         <v>-3.23367685E8</v>
+      </c>
+      <c r="AK34" s="21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>0.0</v>
@@ -23318,11 +23841,14 @@
       </c>
       <c r="AJ35" s="21" t="n">
         <v>6.81818181E8</v>
+      </c>
+      <c r="AK35" s="21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>0.0</v>
@@ -23424,12 +23950,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ36" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK36" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>0.0</v>
@@ -23531,12 +24060,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ37" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK37" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B38" s="21" t="n">
         <v>0.0</v>
@@ -23638,12 +24170,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>0.0</v>
@@ -23745,12 +24280,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK39" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>6.4365085E7</v>
@@ -23853,11 +24391,14 @@
       </c>
       <c r="AJ40" s="21" t="n">
         <v>441855.0</v>
+      </c>
+      <c r="AK40" s="21" t="n">
+        <v>122246.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>1.21134490568E11</v>
@@ -23960,11 +24501,14 @@
       </c>
       <c r="AJ41" s="21" t="n">
         <v>-1.5974999818E10</v>
+      </c>
+      <c r="AK41" s="21" t="n">
+        <v>-1.9E10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>1.102E11</v>
@@ -24066,12 +24610,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK42" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>0.0</v>
@@ -24173,12 +24720,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK43" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>1.2162E10</v>
@@ -24281,11 +24831,14 @@
       </c>
       <c r="AJ44" s="21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK44" s="21" t="n">
+        <v>6.0E10</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>-1.227509432E9</v>
@@ -24388,11 +24941,14 @@
       </c>
       <c r="AJ45" s="21" t="n">
         <v>-1.5974999818E10</v>
+      </c>
+      <c r="AK45" s="21" t="n">
+        <v>-7.9E10</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>0.0</v>
@@ -24494,12 +25050,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK46" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>0.0</v>
@@ -24601,12 +25160,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ47" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK47" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>0.0</v>
@@ -24708,12 +25270,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK48" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B49" s="21" t="n">
         <v>4.8046929089E10</v>
@@ -24816,11 +25381,14 @@
       </c>
       <c r="AJ49" s="21" t="n">
         <v>-9.55695265E8</v>
+      </c>
+      <c r="AK49" s="21" t="n">
+        <v>2.53509854E8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B50" s="21" t="n">
         <v>2.63760608E8</v>
@@ -24923,11 +25491,14 @@
       </c>
       <c r="AJ50" s="21" t="n">
         <v>5.064899063E9</v>
+      </c>
+      <c r="AK50" s="21" t="n">
+        <v>4.109203798E9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B51" s="21" t="n">
         <v>0.0</v>
@@ -25029,12 +25600,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ51" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK51" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B52" s="21" t="n">
         <v>4.8310689697E10</v>
@@ -25137,6 +25711,9 @@
       </c>
       <c r="AJ52" s="21" t="n">
         <v>4.109203798E9</v>
+      </c>
+      <c r="AK52" s="21" t="n">
+        <v>4.362713652E9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -25177,7 +25754,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:G10"/>
-    <mergeCell ref="I10:AJ10"/>
+    <mergeCell ref="I10:AK10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
@@ -25191,7 +25768,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AD176"/>
+  <dimension ref="A1:AE176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -25229,6 +25806,7 @@
     <col min="28" max="28" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25362,10 +25940,13 @@
       <c r="AD11" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AE11" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>5.3629185199E10</v>
@@ -25450,11 +26031,14 @@
       </c>
       <c r="AD12" s="25" t="n">
         <v>4.109203799E9</v>
+      </c>
+      <c r="AE12" s="25" t="n">
+        <v>4.362713652E9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>5.2702259539E10</v>
@@ -25539,11 +26123,14 @@
       </c>
       <c r="AD13" s="25" t="n">
         <v>7.7497738E8</v>
+      </c>
+      <c r="AE13" s="25" t="n">
+        <v>7.54523074E8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>9.2692566E8</v>
@@ -25628,11 +26215,14 @@
       </c>
       <c r="AD14" s="25" t="n">
         <v>3.334226419E9</v>
+      </c>
+      <c r="AE14" s="25" t="n">
+        <v>3.608190578E9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>0.0</v>
@@ -25716,12 +26306,15 @@
         <v>0.0</v>
       </c>
       <c r="AD15" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>0.0</v>
@@ -25805,12 +26398,15 @@
         <v>0.0</v>
       </c>
       <c r="AD16" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>0.0</v>
@@ -25894,12 +26490,15 @@
         <v>0.0</v>
       </c>
       <c r="AD17" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>0.0</v>
@@ -25983,12 +26582,15 @@
         <v>0.0</v>
       </c>
       <c r="AD18" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>0.0</v>
@@ -26072,12 +26674,15 @@
         <v>0.0</v>
       </c>
       <c r="AD19" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>0.0</v>
@@ -26161,12 +26766,15 @@
         <v>0.0</v>
       </c>
       <c r="AD20" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>0.0</v>
@@ -26250,12 +26858,15 @@
         <v>0.0</v>
       </c>
       <c r="AD21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>0.0</v>
@@ -26339,12 +26950,15 @@
         <v>0.0</v>
       </c>
       <c r="AD22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE22" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>0.0</v>
@@ -26428,12 +27042,15 @@
         <v>0.0</v>
       </c>
       <c r="AD23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE23" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>8.7868690682E10</v>
@@ -26518,11 +27135,14 @@
       </c>
       <c r="AD24" s="25" t="n">
         <v>3.53871037318E11</v>
+      </c>
+      <c r="AE24" s="25" t="n">
+        <v>3.60715794377E11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>0.0</v>
@@ -26606,12 +27226,15 @@
         <v>0.0</v>
       </c>
       <c r="AD25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE25" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>0.0</v>
@@ -26695,12 +27318,15 @@
         <v>0.0</v>
       </c>
       <c r="AD26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE26" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>0.0</v>
@@ -26784,12 +27410,15 @@
         <v>0.0</v>
       </c>
       <c r="AD27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE27" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>8.7868690682E10</v>
@@ -26874,11 +27503,14 @@
       </c>
       <c r="AD28" s="25" t="n">
         <v>3.53871037318E11</v>
+      </c>
+      <c r="AE28" s="25" t="n">
+        <v>3.60715794377E11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>1.57336615529E11</v>
@@ -26963,11 +27595,14 @@
       </c>
       <c r="AD29" s="25" t="n">
         <v>3.03174746945E11</v>
+      </c>
+      <c r="AE29" s="25" t="n">
+        <v>3.02973283649E11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>0.0</v>
@@ -27051,12 +27686,15 @@
         <v>0.0</v>
       </c>
       <c r="AD30" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE30" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>0.0</v>
@@ -27140,12 +27778,15 @@
         <v>0.0</v>
       </c>
       <c r="AD31" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE31" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>0.0</v>
@@ -27229,12 +27870,15 @@
         <v>0.0</v>
       </c>
       <c r="AD32" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE32" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>9.175545455E9</v>
@@ -27319,11 +27963,14 @@
       </c>
       <c r="AD33" s="25" t="n">
         <v>1.8708178358E10</v>
+      </c>
+      <c r="AE33" s="25" t="n">
+        <v>2.81344440007E11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>0.0</v>
@@ -27407,12 +28054,15 @@
         <v>0.0</v>
       </c>
       <c r="AD34" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE34" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>0.0</v>
@@ -27497,11 +28147,14 @@
       </c>
       <c r="AD35" s="25" t="n">
         <v>2.84466568587E11</v>
+      </c>
+      <c r="AE35" s="25" t="n">
+        <v>2.1628843642E10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>0.0</v>
@@ -27585,12 +28238,15 @@
         <v>0.0</v>
       </c>
       <c r="AD36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE36" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>0.0</v>
@@ -27674,12 +28330,15 @@
         <v>0.0</v>
       </c>
       <c r="AD37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE37" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B38" s="25" t="n">
         <v>1.48161070074E11</v>
@@ -27763,12 +28422,15 @@
         <v>0.0</v>
       </c>
       <c r="AD38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE38" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B39" s="25" t="n">
         <v>0.0</v>
@@ -27852,12 +28514,15 @@
         <v>0.0</v>
       </c>
       <c r="AD39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE39" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" s="25" t="n">
         <v>0.0</v>
@@ -27941,12 +28606,15 @@
         <v>0.0</v>
       </c>
       <c r="AD40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE40" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="25" t="n">
         <v>0.0</v>
@@ -28030,12 +28698,15 @@
         <v>0.0</v>
       </c>
       <c r="AD41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE41" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B42" s="25" t="n">
         <v>0.0</v>
@@ -28119,12 +28790,15 @@
         <v>0.0</v>
       </c>
       <c r="AD42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE42" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" s="25" t="n">
         <v>0.0</v>
@@ -28208,12 +28882,15 @@
         <v>0.0</v>
       </c>
       <c r="AD43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE43" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>9.15474E8</v>
@@ -28298,11 +28975,14 @@
       </c>
       <c r="AD44" s="25" t="n">
         <v>1.52435E11</v>
+      </c>
+      <c r="AE44" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B45" s="25" t="n">
         <v>0.0</v>
@@ -28386,12 +29066,15 @@
         <v>0.0</v>
       </c>
       <c r="AD45" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B46" s="25" t="n">
         <v>0.0</v>
@@ -28475,12 +29158,15 @@
         <v>0.0</v>
       </c>
       <c r="AD46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" s="25" t="n">
         <v>0.0</v>
@@ -28564,12 +29250,15 @@
         <v>0.0</v>
       </c>
       <c r="AD47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B48" s="25" t="n">
         <v>9.15474E8</v>
@@ -28654,11 +29343,14 @@
       </c>
       <c r="AD48" s="25" t="n">
         <v>1.52435E11</v>
+      </c>
+      <c r="AE48" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B49" s="25" t="n">
         <v>0.0</v>
@@ -28742,12 +29434,15 @@
         <v>4.612522727E9</v>
       </c>
       <c r="AD49" s="25" t="n">
+        <v>1.473440909E9</v>
+      </c>
+      <c r="AE49" s="25" t="n">
         <v>1.473440909E9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B50" s="25" t="n">
         <v>0.0</v>
@@ -28831,12 +29526,15 @@
         <v>4.612522727E9</v>
       </c>
       <c r="AD50" s="25" t="n">
+        <v>4.612522727E9</v>
+      </c>
+      <c r="AE50" s="25" t="n">
         <v>4.612522727E9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B51" s="25" t="n">
         <v>0.0</v>
@@ -28920,12 +29618,15 @@
         <v>0.0</v>
       </c>
       <c r="AD51" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B52" s="25" t="n">
         <v>0.0</v>
@@ -29009,12 +29710,15 @@
         <v>0.0</v>
       </c>
       <c r="AD52" s="25" t="n">
+        <v>-3.139081818E9</v>
+      </c>
+      <c r="AE52" s="25" t="n">
         <v>-3.139081818E9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B53" s="25" t="n">
         <v>3.885849133E9</v>
@@ -29099,11 +29803,14 @@
       </c>
       <c r="AD53" s="25" t="n">
         <v>8.27922158E8</v>
+      </c>
+      <c r="AE53" s="25" t="n">
+        <v>9.12019348E8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B54" s="25" t="n">
         <v>3.410968181E9</v>
@@ -29187,12 +29894,15 @@
         <v>3.101172243E9</v>
       </c>
       <c r="AD54" s="25" t="n">
+        <v>3.101172243E9</v>
+      </c>
+      <c r="AE54" s="25" t="n">
         <v>3.101172243E9</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B55" s="25" t="n">
         <v>4.74880952E8</v>
@@ -29277,11 +29987,14 @@
       </c>
       <c r="AD55" s="25" t="n">
         <v>2.78852558E8</v>
+      </c>
+      <c r="AE55" s="25" t="n">
+        <v>3.62949748E8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B56" s="25" t="n">
         <v>0.0</v>
@@ -29365,12 +30078,15 @@
         <v>0.0</v>
       </c>
       <c r="AD56" s="25" t="n">
+        <v>-2.552102643E9</v>
+      </c>
+      <c r="AE56" s="25" t="n">
         <v>-2.552102643E9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B57" s="25" t="n">
         <v>0.0</v>
@@ -29454,12 +30170,15 @@
         <v>0.0</v>
       </c>
       <c r="AD57" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE57" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B58" s="25" t="n">
         <v>0.0</v>
@@ -29543,12 +30262,15 @@
         <v>0.0</v>
       </c>
       <c r="AD58" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B59" s="25" t="n">
         <v>0.0</v>
@@ -29632,12 +30354,15 @@
         <v>0.0</v>
       </c>
       <c r="AD59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE59" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B60" s="25" t="n">
         <v>0.0</v>
@@ -29721,12 +30446,15 @@
         <v>0.0</v>
       </c>
       <c r="AD60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B61" s="25" t="n">
         <v>0.0</v>
@@ -29810,12 +30538,15 @@
         <v>0.0</v>
       </c>
       <c r="AD61" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B62" s="25" t="n">
         <v>0.0</v>
@@ -29899,12 +30630,15 @@
         <v>0.0</v>
       </c>
       <c r="AD62" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B63" s="25" t="n">
         <v>0.0</v>
@@ -29988,12 +30722,15 @@
         <v>0.0</v>
       </c>
       <c r="AD63" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B64" s="25" t="n">
         <v>0.0</v>
@@ -30077,12 +30814,15 @@
         <v>0.0</v>
       </c>
       <c r="AD64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE64" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B65" s="25" t="n">
         <v>6.7875359273E10</v>
@@ -30166,12 +30906,15 @@
         <v>0.0</v>
       </c>
       <c r="AD65" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE65" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B66" s="25" t="n">
         <v>6.7875359273E10</v>
@@ -30255,12 +30998,15 @@
         <v>0.0</v>
       </c>
       <c r="AD66" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE66" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B67" s="25" t="n">
         <v>0.0</v>
@@ -30344,12 +31090,15 @@
         <v>0.0</v>
       </c>
       <c r="AD67" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE67" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B68" s="25" t="n">
         <v>0.0</v>
@@ -30433,12 +31182,15 @@
         <v>0.0</v>
       </c>
       <c r="AD68" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B69" s="25" t="n">
         <v>0.0</v>
@@ -30522,12 +31274,15 @@
         <v>0.0</v>
       </c>
       <c r="AD69" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B70" s="25" t="n">
         <v>0.0</v>
@@ -30611,12 +31366,15 @@
         <v>0.0</v>
       </c>
       <c r="AD70" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B71" s="25" t="n">
         <v>0.0</v>
@@ -30700,12 +31458,15 @@
         <v>0.0</v>
       </c>
       <c r="AD71" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE71" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B72" s="25" t="n">
         <v>0.0</v>
@@ -30789,12 +31550,15 @@
         <v>0.0</v>
       </c>
       <c r="AD72" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE72" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" s="25" t="n">
         <v>0.0</v>
@@ -30878,12 +31642,15 @@
         <v>0.0</v>
       </c>
       <c r="AD73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE73" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B74" s="25" t="n">
         <v>0.0</v>
@@ -30967,12 +31734,15 @@
         <v>0.0</v>
       </c>
       <c r="AD74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE74" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B75" s="25" t="n">
         <v>0.0</v>
@@ -31056,12 +31826,15 @@
         <v>0.0</v>
       </c>
       <c r="AD75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE75" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B76" s="25" t="n">
         <v>0.0</v>
@@ -31145,12 +31918,15 @@
         <v>0.0</v>
       </c>
       <c r="AD76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE76" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B77" s="25" t="n">
         <v>0.0</v>
@@ -31234,12 +32010,15 @@
         <v>0.0</v>
       </c>
       <c r="AD77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE77" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B78" s="25" t="n">
         <v>0.0</v>
@@ -31323,12 +32102,15 @@
         <v>0.0</v>
       </c>
       <c r="AD78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE78" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B79" s="25" t="n">
         <v>2.04338E10</v>
@@ -31413,11 +32195,14 @@
       </c>
       <c r="AD79" s="25" t="n">
         <v>1.54710570889E11</v>
+      </c>
+      <c r="AE79" s="25" t="n">
+        <v>1.37686748166E11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B80" s="25" t="n">
         <v>2.04338E10</v>
@@ -31502,11 +32287,14 @@
       </c>
       <c r="AD80" s="25" t="n">
         <v>2.0E10</v>
+      </c>
+      <c r="AE80" s="25" t="n">
+        <v>4.0E10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B81" s="25" t="n">
         <v>0.0</v>
@@ -31591,11 +32379,14 @@
       </c>
       <c r="AD81" s="25" t="n">
         <v>1.34710570889E11</v>
+      </c>
+      <c r="AE81" s="25" t="n">
+        <v>9.7686748166E10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B82" s="25" t="n">
         <v>0.0</v>
@@ -31679,12 +32470,15 @@
         <v>0.0</v>
       </c>
       <c r="AD82" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE82" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B83" s="25" t="n">
         <v>0.0</v>
@@ -31768,12 +32562,15 @@
         <v>0.0</v>
       </c>
       <c r="AD83" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE83" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B84" s="25" t="n">
         <v>0.0</v>
@@ -31857,12 +32654,15 @@
         <v>0.0</v>
       </c>
       <c r="AD84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE84" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B85" s="25" t="n">
         <v>0.0</v>
@@ -31946,12 +32746,15 @@
         <v>0.0</v>
       </c>
       <c r="AD85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE85" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B86" s="25" t="n">
         <v>0.0</v>
@@ -32035,12 +32838,15 @@
         <v>0.0</v>
       </c>
       <c r="AD86" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE86" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B87" s="25" t="n">
         <v>0.0</v>
@@ -32124,12 +32930,15 @@
         <v>0.0</v>
       </c>
       <c r="AD87" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE87" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B88" s="25" t="n">
         <v>0.0</v>
@@ -32213,12 +33022,15 @@
         <v>0.0</v>
       </c>
       <c r="AD88" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE88" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B89" s="25" t="n">
         <v>0.0</v>
@@ -32302,12 +33114,15 @@
         <v>0.0</v>
       </c>
       <c r="AD89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE89" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B90" s="25" t="n">
         <v>2.6604521961E10</v>
@@ -32392,11 +33207,14 @@
       </c>
       <c r="AD90" s="25" t="n">
         <v>5.6359259576E10</v>
+      </c>
+      <c r="AE90" s="25" t="n">
+        <v>5.8509145352E10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B91" s="25" t="n">
         <v>0.0</v>
@@ -32481,11 +33299,14 @@
       </c>
       <c r="AD91" s="25" t="n">
         <v>2.744703411E9</v>
+      </c>
+      <c r="AE91" s="25" t="n">
+        <v>2.153061915E9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B92" s="25" t="n">
         <v>0.0</v>
@@ -32569,12 +33390,15 @@
         <v>0.0</v>
       </c>
       <c r="AD92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE92" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B93" s="25" t="n">
         <v>0.0</v>
@@ -32658,12 +33482,15 @@
         <v>0.0</v>
       </c>
       <c r="AD93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE93" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B94" s="25" t="n">
         <v>2.6228605559E10</v>
@@ -32748,11 +33575,14 @@
       </c>
       <c r="AD94" s="25" t="n">
         <v>4.5949448551E10</v>
+      </c>
+      <c r="AE94" s="25" t="n">
+        <v>4.5911454487E10</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B95" s="25" t="n">
         <v>3.75916402E8</v>
@@ -32837,11 +33667,14 @@
       </c>
       <c r="AD95" s="25" t="n">
         <v>2.0097152E8</v>
+      </c>
+      <c r="AE95" s="25" t="n">
+        <v>2.09612562E8</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B96" s="25" t="n">
         <v>0.0</v>
@@ -32925,12 +33758,15 @@
         <v>0.0</v>
       </c>
       <c r="AD96" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE96" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B97" s="25" t="n">
         <v>0.0</v>
@@ -33014,12 +33850,15 @@
         <v>0.0</v>
       </c>
       <c r="AD97" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE97" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B98" s="25" t="n">
         <v>0.0</v>
@@ -33104,11 +33943,14 @@
       </c>
       <c r="AD98" s="25" t="n">
         <v>7.464136094E9</v>
+      </c>
+      <c r="AE98" s="25" t="n">
+        <v>1.0235016388E10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" s="25" t="n">
         <v>0.0</v>
@@ -33192,12 +34034,15 @@
         <v>0.0</v>
       </c>
       <c r="AD99" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE99" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" s="25" t="n">
         <v>0.0</v>
@@ -33282,11 +34127,14 @@
       </c>
       <c r="AD100" s="25" t="n">
         <v>2.6931370736E10</v>
+      </c>
+      <c r="AE100" s="25" t="n">
+        <v>3.1035656964E10</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B101" s="25" t="n">
         <v>0.0</v>
@@ -33370,12 +34218,15 @@
         <v>0.0</v>
       </c>
       <c r="AD101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE101" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B102" s="25" t="n">
         <v>0.0</v>
@@ -33459,12 +34310,15 @@
         <v>0.0</v>
       </c>
       <c r="AD102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE102" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B103" s="25" t="n">
         <v>0.0</v>
@@ -33548,12 +34402,15 @@
         <v>0.0</v>
       </c>
       <c r="AD103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE103" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B104" s="25" t="n">
         <v>0.0</v>
@@ -33638,11 +34495,14 @@
       </c>
       <c r="AD104" s="25" t="n">
         <v>2.6931370736E10</v>
+      </c>
+      <c r="AE104" s="25" t="n">
+        <v>3.1035656964E10</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B105" s="25" t="n">
         <v>1.02348256588E11</v>
@@ -33727,11 +34587,14 @@
       </c>
       <c r="AD105" s="25" t="n">
         <v>1.03679959545E11</v>
+      </c>
+      <c r="AE105" s="25" t="n">
+        <v>1.13285148304E11</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B106" s="25" t="n">
         <v>0.0</v>
@@ -33815,12 +34678,15 @@
         <v>0.0</v>
       </c>
       <c r="AD106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE106" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B107" s="25" t="n">
         <v>0.0</v>
@@ -33904,12 +34770,15 @@
         <v>0.0</v>
       </c>
       <c r="AD107" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE107" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B108" s="25" t="n">
         <v>0.0</v>
@@ -33993,12 +34862,15 @@
         <v>0.0</v>
       </c>
       <c r="AD108" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE108" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B109" s="25" t="n">
         <v>0.0</v>
@@ -34082,12 +34954,15 @@
         <v>0.0</v>
       </c>
       <c r="AD109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE109" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B110" s="25" t="n">
         <v>0.0</v>
@@ -34171,12 +35046,15 @@
         <v>0.0</v>
       </c>
       <c r="AD110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE110" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B111" s="25" t="n">
         <v>0.0</v>
@@ -34260,12 +35138,15 @@
         <v>0.0</v>
       </c>
       <c r="AD111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE111" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B112" s="25" t="n">
         <v>0.0</v>
@@ -34349,12 +35230,15 @@
         <v>0.0</v>
       </c>
       <c r="AD112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE112" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B113" s="25" t="n">
         <v>0.0</v>
@@ -34438,12 +35322,15 @@
         <v>0.0</v>
       </c>
       <c r="AD113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE113" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B114" s="25" t="n">
         <v>1.02348256588E11</v>
@@ -34528,11 +35415,14 @@
       </c>
       <c r="AD114" s="25" t="n">
         <v>1.03679959545E11</v>
+      </c>
+      <c r="AE114" s="25" t="n">
+        <v>1.13285148304E11</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B115" s="25" t="n">
         <v>7.46016663E8</v>
@@ -34617,11 +35507,14 @@
       </c>
       <c r="AD115" s="25" t="n">
         <v>1.5809418213E10</v>
+      </c>
+      <c r="AE115" s="25" t="n">
+        <v>1.3833240936E10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B116" s="25" t="n">
         <v>7.46016663E8</v>
@@ -34706,11 +35599,14 @@
       </c>
       <c r="AD116" s="25" t="n">
         <v>1.5809418213E10</v>
+      </c>
+      <c r="AE116" s="25" t="n">
+        <v>1.3833240936E10</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B117" s="25" t="n">
         <v>0.0</v>
@@ -34794,12 +35690,15 @@
         <v>0.0</v>
       </c>
       <c r="AD117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE117" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B118" s="25" t="n">
         <v>0.0</v>
@@ -34883,12 +35782,15 @@
         <v>0.0</v>
       </c>
       <c r="AD118" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE118" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B119" s="25" t="n">
         <v>0.0</v>
@@ -34972,12 +35874,15 @@
         <v>0.0</v>
       </c>
       <c r="AD119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE119" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B120" s="25" t="n">
         <v>0.0</v>
@@ -35061,12 +35966,15 @@
         <v>0.0</v>
       </c>
       <c r="AD120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE120" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121" s="25" t="n">
         <v>0.0</v>
@@ -35150,12 +36058,15 @@
         <v>0.0</v>
       </c>
       <c r="AD121" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE121" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B122" s="25" t="n">
         <v>0.0</v>
@@ -35239,12 +36150,15 @@
         <v>0.0</v>
       </c>
       <c r="AD122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE122" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B123" s="25" t="n">
         <v>0.0</v>
@@ -35328,12 +36242,15 @@
         <v>0.0</v>
       </c>
       <c r="AD123" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE123" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B124" s="25" t="n">
         <v>2.8250369938E11</v>
@@ -35418,11 +36335,14 @@
       </c>
       <c r="AD124" s="25" t="n">
         <v>4.3097797288E10</v>
+      </c>
+      <c r="AE124" s="25" t="n">
+        <v>2.7292929333E10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B125" s="25" t="n">
         <v>0.0</v>
@@ -35507,11 +36427,14 @@
       </c>
       <c r="AD125" s="25" t="n">
         <v>4.3097797288E10</v>
+      </c>
+      <c r="AE125" s="25" t="n">
+        <v>2.7292929333E10</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B126" s="25" t="n">
         <v>2.8250369938E11</v>
@@ -35595,12 +36518,15 @@
         <v>0.0</v>
       </c>
       <c r="AD126" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE126" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B127" s="25" t="n">
         <v>0.0</v>
@@ -35684,12 +36610,15 @@
         <v>0.0</v>
       </c>
       <c r="AD127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE127" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B128" s="25" t="n">
         <v>0.0</v>
@@ -35773,12 +36702,15 @@
         <v>0.0</v>
       </c>
       <c r="AD128" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE128" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B129" s="25" t="n">
         <v>0.0</v>
@@ -35862,12 +36794,15 @@
         <v>0.0</v>
       </c>
       <c r="AD129" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE129" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B130" s="25" t="n">
         <v>0.0</v>
@@ -35951,12 +36886,15 @@
         <v>0.0</v>
       </c>
       <c r="AD130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE130" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B131" s="25" t="n">
         <v>0.0</v>
@@ -36040,12 +36978,15 @@
         <v>0.0</v>
       </c>
       <c r="AD131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE131" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B132" s="25" t="n">
         <v>0.0</v>
@@ -36129,12 +37070,15 @@
         <v>0.0</v>
       </c>
       <c r="AD132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE132" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B133" s="25" t="n">
         <v>0.0</v>
@@ -36218,12 +37162,15 @@
         <v>0.0</v>
       </c>
       <c r="AD133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE133" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B134" s="25" t="n">
         <v>0.0</v>
@@ -36307,12 +37254,15 @@
         <v>0.0</v>
       </c>
       <c r="AD134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE134" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B135" s="25" t="n">
         <v>1.35813098245E11</v>
@@ -36397,11 +37347,14 @@
       </c>
       <c r="AD135" s="25" t="n">
         <v>1.4761031135E10</v>
+      </c>
+      <c r="AE135" s="25" t="n">
+        <v>1.4708424848E10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B136" s="25" t="n">
         <v>0.0</v>
@@ -36486,11 +37439,14 @@
       </c>
       <c r="AD136" s="25" t="n">
         <v>1.4761031135E10</v>
+      </c>
+      <c r="AE136" s="25" t="n">
+        <v>1.4708424848E10</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B137" s="25" t="n">
         <v>0.0</v>
@@ -36574,12 +37530,15 @@
         <v>0.0</v>
       </c>
       <c r="AD137" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE137" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B138" s="25" t="n">
         <v>1.35813098245E11</v>
@@ -36663,12 +37622,15 @@
         <v>0.0</v>
       </c>
       <c r="AD138" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE138" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B139" s="25" t="n">
         <v>0.0</v>
@@ -36752,12 +37714,15 @@
         <v>0.0</v>
       </c>
       <c r="AD139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE139" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B140" s="25" t="n">
         <v>0.0</v>
@@ -36841,12 +37806,15 @@
         <v>0.0</v>
       </c>
       <c r="AD140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE140" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B141" s="25" t="n">
         <v>0.0</v>
@@ -36930,12 +37898,15 @@
         <v>0.0</v>
       </c>
       <c r="AD141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE141" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B142" s="25" t="n">
         <v>0.0</v>
@@ -37019,12 +37990,15 @@
         <v>0.0</v>
       </c>
       <c r="AD142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE142" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B143" s="25" t="n">
         <v>0.0</v>
@@ -37108,12 +38082,15 @@
         <v>0.0</v>
       </c>
       <c r="AD143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE143" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B144" s="25" t="n">
         <v>6334037.0</v>
@@ -37198,11 +38175,14 @@
       </c>
       <c r="AD144" s="25" t="n">
         <v>355115.0</v>
+      </c>
+      <c r="AE144" s="25" t="n">
+        <v>1.09022245E8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B145" s="25" t="n">
         <v>6334037.0</v>
@@ -37287,11 +38267,14 @@
       </c>
       <c r="AD145" s="25" t="n">
         <v>355115.0</v>
+      </c>
+      <c r="AE145" s="25" t="n">
+        <v>1.09022245E8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B146" s="25" t="n">
         <v>0.0</v>
@@ -37375,12 +38358,15 @@
         <v>0.0</v>
       </c>
       <c r="AD146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE146" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B147" s="25" t="n">
         <v>0.0</v>
@@ -37464,12 +38450,15 @@
         <v>0.0</v>
       </c>
       <c r="AD147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE147" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B148" s="25" t="n">
         <v>0.0</v>
@@ -37553,12 +38542,15 @@
         <v>0.0</v>
       </c>
       <c r="AD148" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE148" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B149" s="25" t="n">
         <v>0.0</v>
@@ -37642,12 +38634,15 @@
         <v>0.0</v>
       </c>
       <c r="AD149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE149" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B150" s="25" t="n">
         <v>0.0</v>
@@ -37731,12 +38726,15 @@
         <v>0.0</v>
       </c>
       <c r="AD150" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE150" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B151" s="25" t="n">
         <v>0.0</v>
@@ -37820,12 +38818,15 @@
         <v>0.0</v>
       </c>
       <c r="AD151" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE151" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B152" s="25" t="n">
         <v>0.0</v>
@@ -37909,12 +38910,15 @@
         <v>0.0</v>
       </c>
       <c r="AD152" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE152" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B153" s="25" t="n">
         <v>0.0</v>
@@ -37998,12 +39002,15 @@
         <v>0.0</v>
       </c>
       <c r="AD153" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE153" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B154" s="25" t="n">
         <v>1.005255855E9</v>
@@ -38088,11 +39095,14 @@
       </c>
       <c r="AD154" s="25" t="n">
         <v>6.112155381E9</v>
+      </c>
+      <c r="AE154" s="25" t="n">
+        <v>4.920410506E9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B155" s="25" t="n">
         <v>1.005255855E9</v>
@@ -38177,11 +39187,14 @@
       </c>
       <c r="AD155" s="25" t="n">
         <v>6.112155381E9</v>
+      </c>
+      <c r="AE155" s="25" t="n">
+        <v>4.920410506E9</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B156" s="25" t="n">
         <v>0.0</v>
@@ -38265,12 +39278,15 @@
         <v>0.0</v>
       </c>
       <c r="AD156" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE156" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B157" s="25" t="n">
         <v>0.0</v>
@@ -38354,12 +39370,15 @@
         <v>0.0</v>
       </c>
       <c r="AD157" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE157" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B158" s="25" t="n">
         <v>0.0</v>
@@ -38443,12 +39462,15 @@
         <v>0.0</v>
       </c>
       <c r="AD158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE158" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B159" s="25" t="n">
         <v>0.0</v>
@@ -38532,12 +39554,15 @@
         <v>0.0</v>
       </c>
       <c r="AD159" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE159" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B160" s="25" t="n">
         <v>0.0</v>
@@ -38621,12 +39646,15 @@
         <v>0.0</v>
       </c>
       <c r="AD160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE160" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B161" s="25" t="n">
         <v>0.0</v>
@@ -38710,12 +39738,15 @@
         <v>0.0</v>
       </c>
       <c r="AD161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE161" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B162" s="25" t="n">
         <v>0.0</v>
@@ -38799,12 +39830,15 @@
         <v>0.0</v>
       </c>
       <c r="AD162" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE162" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B163" s="25" t="n">
         <v>0.0</v>
@@ -38889,11 +39923,14 @@
       </c>
       <c r="AD163" s="25" t="n">
         <v>1.8337807948E10</v>
+      </c>
+      <c r="AE163" s="25" t="n">
+        <v>-2.3999136981E10</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B164" s="25" t="n">
         <v>0.0</v>
@@ -38977,12 +40014,15 @@
         <v>0.0</v>
       </c>
       <c r="AD164" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE164" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B165" s="25" t="n">
         <v>0.0</v>
@@ -39067,11 +40107,14 @@
       </c>
       <c r="AD165" s="25" t="n">
         <v>1.401667675E9</v>
+      </c>
+      <c r="AE165" s="25" t="n">
+        <v>1.453725983E9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B166" s="25" t="n">
         <v>0.0</v>
@@ -39156,11 +40199,14 @@
       </c>
       <c r="AD166" s="25" t="n">
         <v>1.532701199E9</v>
+      </c>
+      <c r="AE166" s="25" t="n">
+        <v>4.35791292E9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B167" s="25" t="n">
         <v>0.0</v>
@@ -39245,11 +40291,14 @@
       </c>
       <c r="AD167" s="25" t="n">
         <v>7.17825968E8</v>
+      </c>
+      <c r="AE167" s="25" t="n">
+        <v>9.87715725E8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B168" s="25" t="n">
         <v>0.0</v>
@@ -39334,6 +40383,9 @@
       </c>
       <c r="AD168" s="25" t="n">
         <v>1.4685613106E10</v>
+      </c>
+      <c r="AE168" s="25" t="n">
+        <v>-3.0798491609E10</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -39374,7 +40426,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:AD10"/>
+    <mergeCell ref="G10:AE10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/FIR.xlsx
+++ b/data/FIR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>FIR</t>

--- a/data/FIR.xlsx
+++ b/data/FIR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>FIR</t>

--- a/data/FIR.xlsx
+++ b/data/FIR.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>FIR</t>
